--- a/biology/Zoologie/Clanis_undulosa/Clanis_undulosa.xlsx
+++ b/biology/Zoologie/Clanis_undulosa/Clanis_undulosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clanis undulosa est une espèce d'insectes lépidoptères de la famille des Sphingidae, de la sous-famille des Sphinginae, de la tribu des Sphingini et du genre Clanis.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure est de 100-120 mm pour Clanis undulosa undulosa et de 118-160 mm pour Clanis undulosa gigantea. 
 			Male - Face dorsale MHNT
@@ -546,11 +560,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes volent de juin à début août en Corée.
-Alimentation
-Les habitudes alimentaires de la sous-espèce nominale ne sont pas connues. Les chenilles de Clanis undulosa gigantea se nourrissent  sur Lespedeza viatorum dans le Guangdong et sur Lespedeza thompsoni dans le nord-est de l'Inde.
 </t>
         </is>
       </c>
@@ -576,22 +590,129 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les habitudes alimentaires de la sous-espèce nominale ne sont pas connues. Les chenilles de Clanis undulosa gigantea se nourrissent  sur Lespedeza viatorum dans le Guangdong et sur Lespedeza thompsoni dans le nord-est de l'Inde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clanis_undulosa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clanis_undulosa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite par l'entomologiste britannique Frederic Moore, en 1879[1].
-La localité type est la région de Pékin.
-Synonymie
-Clanis undulosa jankowskii Gehlen, 1932[2].
-Taxinomie
-Liste des sous-espèces
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce a été décrite par l'entomologiste britannique Frederic Moore, en 1879.
+La localité type est la région de Pékin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clanis_undulosa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clanis_undulosa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Clanis undulosa jankowskii Gehlen, 1932.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Clanis_undulosa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clanis_undulosa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces
 Clanis undulosa undulosa (sud de la Russie en Extrême-Orient, la péninsule coréenne et le nord-est de la Chine, aussi loin au sud et à l'ouest comme au Shaanxi et au Hebei)
 Clanis undulosa gigantea Rothschild, 1894 (Sud de Sichuan, Hubei, Jiangxi et Zhejiang en Chine, dans l'ouest du Népal et au nord-est de l'Inde et au sud, à travers la Thaïlande et le Vietnam, à la Malaisie péninsulaire)
 Synonymie pour cette sous-espèce :
 Clanis gigantea Rothschild, 1894
-Clanis undulosa roseata Mell, 1922[3]
+Clanis undulosa roseata Mell, 1922
 Clanis undulosa f. acuta Mell, 1922
 Clanis undulosa hoenei Mell, 1935</t>
         </is>
